--- a/Data Dictionary, Wetter.xlsx
+++ b/Data Dictionary, Wetter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiman\Documents\Gruppe 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6213D90-7464-47B2-89BB-6BDFD43D181E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF76767-2066-45FC-B5BB-CD6828CEEF40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,20 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
   <si>
     <t>Sturm</t>
   </si>
@@ -136,6 +144,39 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>Temperatur</t>
+  </si>
+  <si>
+    <t>Eistag</t>
+  </si>
+  <si>
+    <t>-10 - 0</t>
+  </si>
+  <si>
+    <t>Kalttag</t>
+  </si>
+  <si>
+    <t>Warmtag</t>
+  </si>
+  <si>
+    <t>16-24</t>
+  </si>
+  <si>
+    <t>Sommertag</t>
+  </si>
+  <si>
+    <t>25-30</t>
+  </si>
+  <si>
+    <t>Hitzetag</t>
+  </si>
+  <si>
+    <t>31-40</t>
+  </si>
+  <si>
+    <t>1-15</t>
   </si>
 </sst>
 </file>
@@ -185,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -208,6 +249,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -548,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -733,10 +777,10 @@
       <c r="A19" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -781,6 +825,77 @@
         <v>8</v>
       </c>
       <c r="C23" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="3">
         <v>4</v>
       </c>
     </row>

--- a/Data Dictionary, Wetter.xlsx
+++ b/Data Dictionary, Wetter.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiman\Documents\Gruppe 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drewanz\Desktop\Open Campus\Gruppe-4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF76767-2066-45FC-B5BB-CD6828CEEF40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9178F30-0D49-4DAD-889E-F2D82D0D01CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -595,25 +595,25 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -624,7 +624,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -635,7 +635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -646,7 +646,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -657,7 +657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -668,7 +668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -679,14 +679,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
@@ -697,7 +697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -709,7 +709,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -721,7 +721,7 @@
       </c>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -733,7 +733,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -744,7 +744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -755,7 +755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -766,14 +766,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>6</v>
       </c>
@@ -784,7 +784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>31</v>
       </c>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>33</v>
       </c>
@@ -806,7 +806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>35</v>
       </c>
@@ -817,7 +817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>36</v>
       </c>
@@ -828,12 +828,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>6</v>
       </c>
@@ -844,7 +844,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>39</v>
       </c>
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
@@ -866,7 +866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>42</v>
       </c>
@@ -877,7 +877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>44</v>
       </c>
@@ -888,7 +888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>46</v>
       </c>
@@ -911,7 +911,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -923,7 +923,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data Dictionary, Wetter.xlsx
+++ b/Data Dictionary, Wetter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiman\Documents\Gruppe 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF76767-2066-45FC-B5BB-CD6828CEEF40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C3CAED-8816-453A-A237-39BE2FB063DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>Sturm</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>1-15</t>
+  </si>
+  <si>
+    <t>4-7</t>
   </si>
 </sst>
 </file>
@@ -595,7 +598,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -810,8 +813,8 @@
       <c r="A22" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="3">
-        <v>7</v>
+      <c r="B22" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C22" s="3">
         <v>2</v>
